--- a/refactoring_todo_list.xlsx
+++ b/refactoring_todo_list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Todo list</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -66,6 +66,14 @@
   </si>
   <si>
     <t>SetParam() Netty 설정관련 적용 안함</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Database</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Database 관련 class Lock 여부 확인</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -488,7 +496,7 @@
   <dimension ref="B2:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -586,9 +594,13 @@
       <c r="B9" s="2">
         <v>5</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">

--- a/refactoring_todo_list.xlsx
+++ b/refactoring_todo_list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Todo list</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -45,10 +45,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>사용여부 확인해야함</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>SetParam()의 BindIP, ExternalIP 부분 맞는지 확인</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -74,6 +70,18 @@
   </si>
   <si>
     <t>Database 관련 class Lock 여부 확인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>적용완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IndexHelper</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현안되어있음(google eqengine 찾아야함)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -133,7 +141,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,6 +151,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -178,7 +192,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -189,6 +203,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -496,7 +516,7 @@
   <dimension ref="B2:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -521,10 +541,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -536,7 +556,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>5</v>
@@ -544,20 +564,20 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>7</v>
+      <c r="F6" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
@@ -568,10 +588,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="3"/>
     </row>
@@ -583,10 +603,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="3"/>
     </row>
@@ -595,11 +615,11 @@
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -607,9 +627,13 @@
       <c r="B10" s="2">
         <v>6</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
